--- a/Tech_Event/user.xlsx
+++ b/Tech_Event/user.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Login</t>
   </si>
@@ -26,67 +26,58 @@
     <t>NbrEvenement</t>
   </si>
   <si>
-    <t>karimR</t>
-  </si>
-  <si>
-    <t>karim.rebey@hotmail.fr</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>RaniaBouterra</t>
+  </si>
+  <si>
+    <t>rania.bouterra@esprit.tn</t>
+  </si>
+  <si>
+    <t>75982487</t>
+  </si>
+  <si>
+    <t>Membre</t>
+  </si>
+  <si>
+    <t>Radhwen</t>
+  </si>
+  <si>
+    <t>radhwen@esprit.tn</t>
+  </si>
+  <si>
+    <t>95174595</t>
+  </si>
+  <si>
+    <t>aymenJaballah</t>
+  </si>
+  <si>
+    <t>aymen.jaballah@esprit.tn</t>
+  </si>
+  <si>
+    <t>21144987</t>
+  </si>
+  <si>
+    <t>houssemAlimi</t>
+  </si>
+  <si>
+    <t>houssem.alimi@esprit.tn</t>
+  </si>
+  <si>
+    <t>21737261</t>
+  </si>
+  <si>
+    <t>MembreActif</t>
+  </si>
+  <si>
+    <t>karimRebey</t>
+  </si>
+  <si>
+    <t>mohamedkarim.rebey@esprit.tn</t>
+  </si>
+  <si>
+    <t>50737261</t>
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>rachid</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>MembreActif</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>Membre</t>
-  </si>
-  <si>
-    <t>fv</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>sddf</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
 </sst>
 </file>
@@ -176,12 +167,12 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -190,21 +181,21 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -212,41 +203,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
